--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -575,7 +575,7 @@
         <v>45406</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45320</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>45226</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45894</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45922.46042824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44497</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44969</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45470</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45922</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45554</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45940.65670138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45922.45040509259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45947</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45470</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44739</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45922.44047453703</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44552.41238425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45947</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>45573.44864583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45819</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>45960.51373842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44630.92287037037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45790.3622337963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45622</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45576</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>45846.35324074074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>45960</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45254</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45574</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45600.46027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45819</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45457</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>45932.61603009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45944</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45887</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45980</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>45516</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>45951</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44463</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45576</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45784</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44813.61173611111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45894.52885416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45922.42065972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45922.40668981482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45775</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>45933</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>45840.64365740741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45938</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45565</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45847</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45953</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>45953</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45623</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45170</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45985</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45989</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45993</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45337.95472222222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44832.34037037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45168</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>44431</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45793</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44693.42863425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44449.44953703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44280</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44735.94076388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44552.44517361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44491.52248842592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44463.32685185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44552.36655092592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44484</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44825</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44818</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44329.85693287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44455</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44711</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44741.61087962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44300</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44463</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44750.53711805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44440.83734953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44515.9200462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44819.76788194444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44795</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44813.55563657408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44476</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44462.40960648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>45632</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>45565</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45554.66056712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45078</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45622</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>44959</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>44795</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45621</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>44732</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44460</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>45474</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45175</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>45583.52376157408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44728</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44855</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45016</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45525</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45688.68466435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>44378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45798.99405092592</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45709</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45709</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45803.57784722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45629</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45103.9419212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45803</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45587.47009259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>45782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45552.38583333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45804</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45805.34427083333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44460</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45808</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45220</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45808.42758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45888.37311342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45222.92427083333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45895.49011574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45832.65146990741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45561</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>45896.34483796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45898.63592592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45747</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45250</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45250</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45772</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45776</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45821.4296412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45904.36495370371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45874</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44851</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45825</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45505</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45576</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45103</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45827</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45916.67736111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45916.47452546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45916.47724537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45916</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45561.63650462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45919</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44910</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45125.54148148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45919</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45831.35650462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45919.34554398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45832.50912037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45832.37572916667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45220</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45511</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45925.55935185185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45833.65652777778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45833.65660879629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45832.45363425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>45265.33850694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45832.34675925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45833.63626157407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45709</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45925.55700231482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45925.54362268518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45924</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45280.6125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45618</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45280.81618055556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>45929.53166666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45931</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45932.37545138889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45933</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44967.40280092593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44895.67405092593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45933.59439814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45933.42769675926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45510.31917824074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45937</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45938.34246527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45938</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>45938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45554.66608796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45938.57365740741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45063.94185185185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45280.62268518518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45945.35767361111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45846.42490740741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45434</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45947.594375</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>45946.45390046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45947</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44949.9250925926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45950</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44462</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45861</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45831</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45861.38800925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44741.92667824074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45953.53173611111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>45580</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>45631</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45952.55248842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45869.46420138889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45869</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45477</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45957</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44942</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45517</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45957</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45957.69834490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45552.46903935185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45365</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45873</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45956.34509259259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45764</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45709</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45772</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45831.38609953703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45405</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45960.51831018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45960.52081018518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45166.6403125</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45960</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>45961</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45961.35986111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45960.50393518519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>45646.65796296296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>45772</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45964.54909722223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45772</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45621.53268518519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45642</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45972.67854166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45973</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45972.34483796296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45975</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45974</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45579.5946875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>45974.56701388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>45975.46935185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45974.56496527778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45885</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45974.55252314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>46019.80629629629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45735</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>46019.80730324074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45979</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>45979.34614583333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45607</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45979</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45979</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45691</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45167.3790162037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45980</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44617</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>46019.79444444444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45985</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45987.38778935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45986.53731481481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44895.65135416666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45068.51972222222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>45987</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44910.92222222222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>45986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44942</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45989.5925462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45988.47903935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45992</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45224</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45992.49039351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45194</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>46034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45992</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>45992.5737962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>45992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>45992.49027777778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>45992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>46034</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45044</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45985</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45708</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45271</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44918</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44918</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45232</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45583</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>45961</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>45548</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44985</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45639</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45302</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45272.3881712963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45450</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45113</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>45720</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>46050.40673611111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44872</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>45632</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44460</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>46055.62548611111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45751.55675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45712.55256944444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45712.55259259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>45548.4180787037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45931.34706018519</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>45365.3860300926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45937.34543981482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>46058.38621527778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44580.92210648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44873</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44847</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45344.82890046296</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45470</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45565</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45565</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45463</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45744.52540509259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45250</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45098</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44952</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45552</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>44617</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>44491</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45511.67006944444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45278</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45632</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44994</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45477</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45642</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>45114</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45484</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45540</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45252</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44943</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44810.57025462963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44873</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45282</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>45251.36628472222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44823.66949074074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45334.62170138889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45565.64506944444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45570</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45194</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45603</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45406.77420138889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45519.31964120371</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45251</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45587.47013888889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45678</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>45494.95077546296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45246</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44896</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>45266</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>45688.68462962963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>45709</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45709</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45016</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44617</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44617</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45334</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45495</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>45216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45194</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>45448</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45644.58398148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45434</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>45777</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45587</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>45772</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>45784</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45601</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45478.92890046296</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45791.42792824074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45791.65248842593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -575,7 +575,7 @@
         <v>45406</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45320</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>45226</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45894</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45922.46042824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45425</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44497</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44969</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45470</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45922</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45554</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45940.65670138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45922.45040509259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45947</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45470</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44739</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45922.44047453703</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44552.41238425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45947</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>45573.44864583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45819</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>45960.51373842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44630.92287037037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45790.3622337963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45622</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45576</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>45846.35324074074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>45960</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45254</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45574</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45600.46027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45819</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45457</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>45932.61603009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         <v>45106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45944</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45621</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45887</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>45980</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>45516</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>45951</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44463</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45576</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45784</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44813.61173611111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45894.52885416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45922.42065972222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>45922.40668981482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>45775</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>45933</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         <v>45840.64365740741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45938</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45944</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45565</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45847</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45953</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>45953</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45957</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45957</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45878</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45623</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45170</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45985</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45989</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45993</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45337.95472222222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44832.34037037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45168</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>44431</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45793</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44693.42863425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44449.44953703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44280</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44735.94076388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44552.44517361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44491.52248842592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44463.32685185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44552.36655092592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44484</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44825</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44818</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44329.85693287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44455</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44711</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44741.61087962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44300</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44463</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44750.53711805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44440.83734953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44515.9200462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44819.76788194444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44795</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44813.55563657408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44476</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44462.40960648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>45632</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>45565</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45554.66056712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>45078</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45622</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>44959</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>44795</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>45621</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>44732</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44460</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>45474</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45175</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>45583.52376157408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44728</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44855</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45016</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45525</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45688.68466435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>44378</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45798.99405092592</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45709</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45709</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45803.57784722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45629</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45103.9419212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45803</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45587.47009259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>45782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45552.38583333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45804</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45805.34427083333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>44460</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45808</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45220</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45516</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45808.42758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45888.37311342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>45812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>45891</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45222.92427083333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45895.49011574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45832.65146990741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>45561</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44552</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>45896.34483796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45898.63592592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45747</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45250</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45250</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45772</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45776</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45821.4296412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45904.36495370371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>45874</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44851</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45825</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45505</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45576</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>45103</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45827</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45916.67736111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45916.47452546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45916.47724537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45916</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>45561.63650462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45919</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44910</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45125.54148148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45919</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45831.35650462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>45919.34554398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45832.50912037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45832.37572916667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45220</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45511</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>45925.55935185185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>45833.65652777778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45833.65660879629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45832.45363425926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>45265.33850694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45832.34675925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45833.63626157407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45709</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45925.55700231482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45925.54362268518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45924</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45280.6125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>45618</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45280.81618055556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>45929.53166666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45931</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45932.37545138889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45933</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44967.40280092593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44895.67405092593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45933.59439814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>45933.42769675926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>45936</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>45510.31917824074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45937</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45938.34246527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45938</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>45938</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45938</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45554.66608796296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45938.57365740741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>45063.94185185185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45280.62268518518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45945.35767361111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45846.42490740741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45434</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45947.594375</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>45946.45390046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45947</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44494</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44949.9250925926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>45565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45950</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44462</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45861</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45831</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45861</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45861.38800925926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44741.92667824074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45953.53173611111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>45580</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>45631</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45952.55248842593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45869.46420138889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45869</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45869</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45477</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45957</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>44942</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45517</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45957</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45957.69834490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45552.46903935185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45365</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45873</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45956.34509259259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>45764</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45709</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45772</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45831.38609953703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45873</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45405</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45960</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45960.51831018519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45960.52081018518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45166.6403125</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45960</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>45961</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45961.35986111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>45960.50393518519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>45646.65796296296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>45772</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45964.54909722223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45772</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45621.53268518519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45642</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45972.67854166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45973</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20217,7 +20217,7 @@
         <v>45972.34483796296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45975</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45974</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45579.5946875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>45974.56701388889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>45975.46935185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45974.56496527778</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45885</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45974.55252314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>46019.80629629629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45735</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>46019.80730324074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>45979</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>45979.34614583333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>45607</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45979</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45979</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45691</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45167.3790162037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45980</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44617</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>46019.79444444444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45078</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45985</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45987.38778935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45986.53731481481</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44895.65135416666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45068.51972222222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>45987</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>44910.92222222222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>45986</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44942</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45989.5925462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45988.47903935185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45992</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45224</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45992.49039351852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45194</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>46034</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44617</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45992</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>45992.5737962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>45992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>45992.49027777778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>45992</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>46034</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45044</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45985</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45708</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45271</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44918</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44918</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45232</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45583</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>45961</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>45548</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44985</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45639</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45302</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45272.3881712963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45450</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>45113</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>45720</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>46050.40673611111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44872</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>45632</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44460</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>46055.62548611111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45751.55675925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>45712.55256944444</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>45712.55259259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>45548.4180787037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45931.34706018519</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>45365.3860300926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45305</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45937.34543981482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>46058.38621527778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44580.92210648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44873</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44847</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45344.82890046296</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45470</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25088,7 +25088,7 @@
         <v>45565</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>45565</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45463</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>45744.52540509259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45250</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>45098</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44952</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>45552</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25611,7 +25611,7 @@
         <v>44617</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25668,7 +25668,7 @@
         <v>44448</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25725,7 +25725,7 @@
         <v>44491</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25782,7 +25782,7 @@
         <v>45511.67006944444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45278</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45632</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44994</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45477</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45642</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>45114</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45484</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45540</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45252</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44943</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44810.57025462963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44873</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45282</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>45251.36628472222</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44823.66949074074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45334.62170138889</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45565.64506944444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>45570</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26915,7 +26915,7 @@
         <v>45194</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>44790</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45603</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45406.77420138889</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45519.31964120371</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>45251</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45162</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>45587.47013888889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45678</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>45494.95077546296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>45246</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44896</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>45266</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>45688.68462962963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>45709</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>45709</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>45016</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44617</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44617</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45334</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45495</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28189,7 +28189,7 @@
         <v>45344</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>45216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45194</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>45448</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45644.58398148148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>45741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>45434</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>45777</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>45587</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>45772</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>45784</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45601</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45478.92890046296</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45791.42792824074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45791.65248842593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>

--- a/Översikt ÄLVSBYN.xlsx
+++ b/Översikt ÄLVSBYN.xlsx
@@ -575,7 +575,7 @@
         <v>45406</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45320</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>45226</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45922.46042824074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45425</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44497</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44969</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>45624</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45470</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45922</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>45554</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>45940.65670138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>44455</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45922.45040509259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45947</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45470</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>44739</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>45922.44047453703</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45944</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44552.41238425926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45947</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>45573.44864583333</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45819</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>45960.51373842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44630.92287037037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45790.3622337963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45622</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45576</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>45846.35324074074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>45960</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45254</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>45574</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>45600.46027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45819</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45457</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         <v>45106</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45932.61603009259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>45621</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45944</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45980</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>44463</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45951</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45450</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>45887</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>45576</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45784</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>45789</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
         <v>44813.61173611111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44671</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45894.52885416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45775</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45840.64365740741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>45847</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45922.42065972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>45922.40668981482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45629</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>45565</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>45933</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45878</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45938</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45944</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45953</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>45953</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45957</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45957</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45623</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45170</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         <v>45985</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45989</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45993</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45337.95472222222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44832.34037037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45168</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>44431</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45793</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44693.42863425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>44449.44953703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>44280</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44735.94076388889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44868</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44552.44517361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44491.52248842592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44491</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>44460</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>44463.32685185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44552.36655092592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>44484</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44847</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>44818</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>44825</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>44329.85693287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>44455</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44741.61087962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44711</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>44300</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>44463</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>44750.53711805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44602</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>44440.83734953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>44515.9200462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>44795</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>44819.76788194444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>44813.55563657408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44476</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44462.40960648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         <v>45632</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>45078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>45554.66056712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>45565</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45622</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>44959</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>44795</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>44732</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>45621</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>45474</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44460</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45175</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>45583.52376157408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44728</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44855</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45016</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44378</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45709</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45709</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45103.9419212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45552.38583333333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>45587.47009259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45629</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>44552</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>45250</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45250</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45821.4296412037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44460</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45825</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>45888.37311342593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45505</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45891</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45827</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44851</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45895.49011574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>45831.35650462963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>45832.50912037037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>45576</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45832.37572916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>45896.34483796296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>45103</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45833.65652777778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>45833.65660879629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>45832.45363425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>45832.34675925926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45833.63626157407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45898.63592592593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>45747</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>45772</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>45776</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45561.63650462963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44910</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45125.54148148148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45220</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45904.36495370371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>45874</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>45511</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45265.33850694444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45709</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45280.6125</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45618</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45280.81618055556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45846.42490740741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45916.67736111111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45916.47452546296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45916.47724537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45916</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45919</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45919</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45919.34554398148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>44967.40280092593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44895.67405092593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45565</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44462</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45861</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45831</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45861</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45510.31917824074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45861.38800925926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44741.92667824074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45925.55935185185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45925.55700231482</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45925.54362268518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45869.46420138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45869</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45924</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45869</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>45554.66608796296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>45063.94185185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45929.53166666667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45873</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>45709</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>45772</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>45831.38609953703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>45873</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45931</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>45280.62268518518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45874</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>45932.37545138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45933</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>45434</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>45933.59439814815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>44494</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>45646.65796296296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>45772</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>45936</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44949.9250925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45772</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45882</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45937</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45938.34246527778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45938</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45580</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>45938</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45938</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45938.57365740741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45631</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45477</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44942</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45552.46903935185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45365</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>45764</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45945.35767361111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45885</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>45947.594375</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>45946.45390046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45405</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45947</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45166.6403125</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45950</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45953.53173611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45952.55248842593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45621.53268518519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45957</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45957.69834490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45956.34509259259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45642</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45960</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45960.51831018519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45960.52081018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45960</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>45961</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>45961.35986111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45960.50393518519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>45579.5946875</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45964.54909722223</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45607</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>45691</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45167.3790162037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44617</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>45078</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45972.67854166667</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45973</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>45972.34483796296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44895.65135416666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45068.51972222222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45975</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45974</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>45974.56701388889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45975.46935185185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>45974.56496527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>45974.55252314815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>45979</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20269,7 +20269,7 @@
         <v>44910.92222222222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20326,7 +20326,7 @@
         <v>45979.34614583333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>45979</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>45979</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>45980</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44942</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45224</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45194</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45985</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45985</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44617</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45987.38778935185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45986.53731481481</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>45987</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45986</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45044</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45989.5925462963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45988.47903935185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>45992</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45992.49039351852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45992</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>45992.5737962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>45992</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21625,7 +21625,7 @@
         <v>45992.49027777778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         <v>45992</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45708</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45271</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45985</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>44918</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21977,7 +21977,7 @@
         <v>44918</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45232</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45583</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>45548</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45961</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45639</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45302</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45272.3881712963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>45450</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45113</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45720</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44872</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>45632</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>44460</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>45751.55675925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>46050.40673611111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45712.55256944444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45712.55259259259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>46055.62548611111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>45548.4180787037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45365.3860300926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45305</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45931.34706018519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44580.92210648148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45937.34543981482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>46058.38621527778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>44847</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45933.42769675926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45344.82890046296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>46019.79444444444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>46019.80629629629</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>46019.80730324074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45470</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45688.68466435185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45565</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45565</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45463</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45744.52540509259</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>45250</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45832</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45098</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>46073.4183912037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>45296</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>46073.42565972222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>46073.43217592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>46034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>44952</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45552</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44448</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45511.67006944444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45278</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45632</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44994</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45477</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45642</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25467,7 +25467,7 @@
         <v>45484</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45540</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45252</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44943</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44810.57025462963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44873</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25829,7 +25829,7 @@
         <v>45282</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45251.36628472222</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>44823.66949074074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45334.62170138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>45565.64506944444</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45570</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45194</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44790</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45603</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45406.77420138889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45519.31964120371</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>45251</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>45162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45587.47013888889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45678</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45494.95077546296</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>45246</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>44896</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45266</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45688.68462962963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45709</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45709</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45016</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44617</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44617</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45334</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45334</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45495</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>45344</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45216</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45194</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45448</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>45644.58398148148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45741</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45434</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45777</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45587</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45772</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45784</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45601</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45478.92890046296</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45791.42792824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45791.65248842593</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45792</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45525</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45798.99405092592</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45803.57784722222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45803</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45782</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45804</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45805.34427083333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45808</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45220</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>45808.42758101852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45812</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45222.92427083333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45561</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
